--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03805099999999999</v>
+        <v>0.08886633333333334</v>
       </c>
       <c r="H2">
-        <v>0.114153</v>
+        <v>0.266599</v>
       </c>
       <c r="I2">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="J2">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.258824</v>
+        <v>0.2708086666666666</v>
       </c>
       <c r="N2">
-        <v>0.7764719999999999</v>
+        <v>0.812426</v>
       </c>
       <c r="O2">
-        <v>0.06426932741068538</v>
+        <v>0.0513456503334074</v>
       </c>
       <c r="P2">
-        <v>0.06426932741068538</v>
+        <v>0.05134565033340741</v>
       </c>
       <c r="Q2">
-        <v>0.009848512023999998</v>
+        <v>0.02406577324155556</v>
       </c>
       <c r="R2">
-        <v>0.08863660821599999</v>
+        <v>0.216591959174</v>
       </c>
       <c r="S2">
-        <v>0.004093873495341979</v>
+        <v>0.005371928176983625</v>
       </c>
       <c r="T2">
-        <v>0.004093873495341979</v>
+        <v>0.005371928176983625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03805099999999999</v>
+        <v>0.08886633333333334</v>
       </c>
       <c r="H3">
-        <v>0.114153</v>
+        <v>0.266599</v>
       </c>
       <c r="I3">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="J3">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.976813</v>
       </c>
       <c r="O3">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="P3">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="Q3">
-        <v>0.1011752371543333</v>
+        <v>0.2362900409985556</v>
       </c>
       <c r="R3">
-        <v>0.9105771343889999</v>
+        <v>2.126610368987</v>
       </c>
       <c r="S3">
-        <v>0.04205697477565107</v>
+        <v>0.05274433181265652</v>
       </c>
       <c r="T3">
-        <v>0.04205697477565107</v>
+        <v>0.05274433181265652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08886633333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.266599</v>
+      </c>
+      <c r="I4">
+        <v>0.1046228481303011</v>
+      </c>
+      <c r="J4">
+        <v>0.1046228481303011</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.03805099999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.114153</v>
-      </c>
-      <c r="I4">
-        <v>0.06369871383874688</v>
-      </c>
-      <c r="J4">
-        <v>0.06369871383874688</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.1634573333333333</v>
+        <v>1.07216</v>
       </c>
       <c r="N4">
-        <v>0.490372</v>
+        <v>3.21648</v>
       </c>
       <c r="O4">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="P4">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="Q4">
-        <v>0.006219714990666665</v>
+        <v>0.09527892794666667</v>
       </c>
       <c r="R4">
-        <v>0.05597743491599999</v>
+        <v>0.85751035152</v>
       </c>
       <c r="S4">
-        <v>0.002585438925882501</v>
+        <v>0.02126802877148724</v>
       </c>
       <c r="T4">
-        <v>0.002585438925882501</v>
+        <v>0.02126802877148724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.03805099999999999</v>
+        <v>0.08886633333333334</v>
       </c>
       <c r="H5">
-        <v>0.114153</v>
+        <v>0.266599</v>
       </c>
       <c r="I5">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="J5">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.312902</v>
+        <v>0.6904613333333334</v>
       </c>
       <c r="N5">
-        <v>0.938706</v>
+        <v>2.071384</v>
       </c>
       <c r="O5">
-        <v>0.07769759019819752</v>
+        <v>0.130912302868464</v>
       </c>
       <c r="P5">
-        <v>0.07769759019819752</v>
+        <v>0.1309123028684641</v>
       </c>
       <c r="Q5">
-        <v>0.011906234002</v>
+        <v>0.06135876700177779</v>
       </c>
       <c r="R5">
-        <v>0.107156106018</v>
+        <v>0.5522289030160001</v>
       </c>
       <c r="S5">
-        <v>0.004949236563995209</v>
+        <v>0.01369641798139529</v>
       </c>
       <c r="T5">
-        <v>0.004949236563995209</v>
+        <v>0.01369641798139529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03805099999999999</v>
+        <v>0.08886633333333334</v>
       </c>
       <c r="H6">
-        <v>0.114153</v>
+        <v>0.266599</v>
       </c>
       <c r="I6">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="J6">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6330566666666666</v>
+        <v>0.5818603333333333</v>
       </c>
       <c r="N6">
-        <v>1.89917</v>
+        <v>1.745581</v>
       </c>
       <c r="O6">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="P6">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="Q6">
-        <v>0.02408843922333333</v>
+        <v>0.05170779433544444</v>
       </c>
       <c r="R6">
-        <v>0.21679595301</v>
+        <v>0.4653701490190001</v>
       </c>
       <c r="S6">
-        <v>0.01001319007787612</v>
+        <v>0.0115421413877784</v>
       </c>
       <c r="T6">
-        <v>0.01001319007787612</v>
+        <v>0.0115421413877784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1980723333333334</v>
+        <v>0.1980723333333333</v>
       </c>
       <c r="H7">
-        <v>0.5942170000000001</v>
+        <v>0.594217</v>
       </c>
       <c r="I7">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="J7">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.258824</v>
+        <v>0.2708086666666666</v>
       </c>
       <c r="N7">
-        <v>0.7764719999999999</v>
+        <v>0.812426</v>
       </c>
       <c r="O7">
-        <v>0.06426932741068538</v>
+        <v>0.0513456503334074</v>
       </c>
       <c r="P7">
-        <v>0.06426932741068538</v>
+        <v>0.05134565033340741</v>
       </c>
       <c r="Q7">
-        <v>0.05126587360266668</v>
+        <v>0.05363970449355555</v>
       </c>
       <c r="R7">
-        <v>0.4613928624240001</v>
+        <v>0.482757340442</v>
       </c>
       <c r="S7">
-        <v>0.02131042746823671</v>
+        <v>0.01197337966587526</v>
       </c>
       <c r="T7">
-        <v>0.02131042746823671</v>
+        <v>0.01197337966587526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1980723333333334</v>
+        <v>0.1980723333333333</v>
       </c>
       <c r="H8">
-        <v>0.5942170000000001</v>
+        <v>0.594217</v>
       </c>
       <c r="I8">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="J8">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.976813</v>
       </c>
       <c r="O8">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="P8">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="Q8">
-        <v>0.5266619878245556</v>
+        <v>0.5266619878245555</v>
       </c>
       <c r="R8">
         <v>4.739957890421</v>
       </c>
       <c r="S8">
-        <v>0.2189252089762254</v>
+        <v>0.1175607508532339</v>
       </c>
       <c r="T8">
-        <v>0.2189252089762254</v>
+        <v>0.1175607508532339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1980723333333334</v>
+        <v>0.1980723333333333</v>
       </c>
       <c r="H9">
-        <v>0.5942170000000001</v>
+        <v>0.594217</v>
       </c>
       <c r="I9">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="J9">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1634573333333333</v>
+        <v>1.07216</v>
       </c>
       <c r="N9">
-        <v>0.490372</v>
+        <v>3.21648</v>
       </c>
       <c r="O9">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="P9">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="Q9">
-        <v>0.03237637541377778</v>
+        <v>0.2123652329066666</v>
       </c>
       <c r="R9">
-        <v>0.2913873787240001</v>
+        <v>1.91128709616</v>
       </c>
       <c r="S9">
-        <v>0.01345835643584595</v>
+        <v>0.04740386967883162</v>
       </c>
       <c r="T9">
-        <v>0.01345835643584594</v>
+        <v>0.04740386967883162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1980723333333334</v>
+        <v>0.1980723333333333</v>
       </c>
       <c r="H10">
-        <v>0.5942170000000001</v>
+        <v>0.594217</v>
       </c>
       <c r="I10">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="J10">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.312902</v>
+        <v>0.6904613333333334</v>
       </c>
       <c r="N10">
-        <v>0.938706</v>
+        <v>2.071384</v>
       </c>
       <c r="O10">
-        <v>0.07769759019819752</v>
+        <v>0.130912302868464</v>
       </c>
       <c r="P10">
-        <v>0.07769759019819752</v>
+        <v>0.1309123028684641</v>
       </c>
       <c r="Q10">
-        <v>0.06197722924466668</v>
+        <v>0.1367612873697778</v>
       </c>
       <c r="R10">
-        <v>0.5577950632020001</v>
+        <v>1.230851586328</v>
       </c>
       <c r="S10">
-        <v>0.02576297165512551</v>
+        <v>0.03052766290815331</v>
       </c>
       <c r="T10">
-        <v>0.0257629716551255</v>
+        <v>0.03052766290815332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1980723333333334</v>
+        <v>0.1980723333333333</v>
       </c>
       <c r="H11">
-        <v>0.5942170000000001</v>
+        <v>0.594217</v>
       </c>
       <c r="I11">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="J11">
-        <v>0.3315800604549917</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6330566666666666</v>
+        <v>0.5818603333333333</v>
       </c>
       <c r="N11">
-        <v>1.89917</v>
+        <v>1.745581</v>
       </c>
       <c r="O11">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="P11">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="Q11">
-        <v>0.1253910110988889</v>
+        <v>0.1152504338974444</v>
       </c>
       <c r="R11">
-        <v>1.12851909989</v>
+        <v>1.037253905077</v>
       </c>
       <c r="S11">
-        <v>0.0521230959195581</v>
+        <v>0.02572604034156736</v>
       </c>
       <c r="T11">
-        <v>0.05212309591955809</v>
+        <v>0.02572604034156736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08168266666666667</v>
+        <v>0.151686</v>
       </c>
       <c r="H12">
-        <v>0.245048</v>
+        <v>0.455058</v>
       </c>
       <c r="I12">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="J12">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.258824</v>
+        <v>0.2708086666666666</v>
       </c>
       <c r="N12">
-        <v>0.7764719999999999</v>
+        <v>0.812426</v>
       </c>
       <c r="O12">
-        <v>0.06426932741068538</v>
+        <v>0.0513456503334074</v>
       </c>
       <c r="P12">
-        <v>0.06426932741068538</v>
+        <v>0.05134565033340741</v>
       </c>
       <c r="Q12">
-        <v>0.02114143451733333</v>
+        <v>0.04107788341199999</v>
       </c>
       <c r="R12">
-        <v>0.190272910656</v>
+        <v>0.369700950708</v>
       </c>
       <c r="S12">
-        <v>0.008788165990263606</v>
+        <v>0.009169347568302261</v>
       </c>
       <c r="T12">
-        <v>0.008788165990263606</v>
+        <v>0.009169347568302259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08168266666666667</v>
+        <v>0.151686</v>
       </c>
       <c r="H13">
-        <v>0.245048</v>
+        <v>0.455058</v>
       </c>
       <c r="I13">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="J13">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.976813</v>
       </c>
       <c r="O13">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="P13">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="Q13">
-        <v>0.2171891191137778</v>
+        <v>0.4033236189059999</v>
       </c>
       <c r="R13">
-        <v>1.954702072024</v>
+        <v>3.629912570154</v>
       </c>
       <c r="S13">
-        <v>0.09028214374413063</v>
+        <v>0.09002933299076084</v>
       </c>
       <c r="T13">
-        <v>0.09028214374413063</v>
+        <v>0.09002933299076082</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08168266666666667</v>
+        <v>0.151686</v>
       </c>
       <c r="H14">
-        <v>0.245048</v>
+        <v>0.455058</v>
       </c>
       <c r="I14">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="J14">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1634573333333333</v>
+        <v>1.07216</v>
       </c>
       <c r="N14">
-        <v>0.490372</v>
+        <v>3.21648</v>
       </c>
       <c r="O14">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="P14">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="Q14">
-        <v>0.01335163087288889</v>
+        <v>0.16263166176</v>
       </c>
       <c r="R14">
-        <v>0.120164677856</v>
+        <v>1.46368495584</v>
       </c>
       <c r="S14">
-        <v>0.005550065595382119</v>
+        <v>0.03630241162455763</v>
       </c>
       <c r="T14">
-        <v>0.005550065595382119</v>
+        <v>0.03630241162455762</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08168266666666667</v>
+        <v>0.151686</v>
       </c>
       <c r="H15">
-        <v>0.245048</v>
+        <v>0.455058</v>
       </c>
       <c r="I15">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="J15">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.312902</v>
+        <v>0.6904613333333334</v>
       </c>
       <c r="N15">
-        <v>0.938706</v>
+        <v>2.071384</v>
       </c>
       <c r="O15">
-        <v>0.07769759019819752</v>
+        <v>0.130912302868464</v>
       </c>
       <c r="P15">
-        <v>0.07769759019819752</v>
+        <v>0.1309123028684641</v>
       </c>
       <c r="Q15">
-        <v>0.02555866976533333</v>
+        <v>0.104733317808</v>
       </c>
       <c r="R15">
-        <v>0.230028027888</v>
+        <v>0.9425998602719999</v>
       </c>
       <c r="S15">
-        <v>0.01062434208066278</v>
+        <v>0.02337842442686498</v>
       </c>
       <c r="T15">
-        <v>0.01062434208066278</v>
+        <v>0.02337842442686498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08168266666666667</v>
+        <v>0.151686</v>
       </c>
       <c r="H16">
-        <v>0.245048</v>
+        <v>0.455058</v>
       </c>
       <c r="I16">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="J16">
-        <v>0.1367396601820123</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6330566666666666</v>
+        <v>0.5818603333333333</v>
       </c>
       <c r="N16">
-        <v>1.89917</v>
+        <v>1.745581</v>
       </c>
       <c r="O16">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="P16">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="Q16">
-        <v>0.05170975668444444</v>
+        <v>0.08826006652199998</v>
       </c>
       <c r="R16">
-        <v>0.4653878101599999</v>
+        <v>0.794340598698</v>
       </c>
       <c r="S16">
-        <v>0.02149494277157313</v>
+        <v>0.01970128836057023</v>
       </c>
       <c r="T16">
-        <v>0.02149494277157313</v>
+        <v>0.01970128836057023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1226536666666667</v>
+        <v>0.2528413333333333</v>
       </c>
       <c r="H17">
-        <v>0.367961</v>
+        <v>0.758524</v>
       </c>
       <c r="I17">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="J17">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.258824</v>
+        <v>0.2708086666666666</v>
       </c>
       <c r="N17">
-        <v>0.7764719999999999</v>
+        <v>0.812426</v>
       </c>
       <c r="O17">
-        <v>0.06426932741068538</v>
+        <v>0.0513456503334074</v>
       </c>
       <c r="P17">
-        <v>0.06426932741068538</v>
+        <v>0.05134565033340741</v>
       </c>
       <c r="Q17">
-        <v>0.03174571262133333</v>
+        <v>0.06847162435822221</v>
       </c>
       <c r="R17">
-        <v>0.285711413592</v>
+        <v>0.616244619224</v>
       </c>
       <c r="S17">
-        <v>0.01319619970758132</v>
+        <v>0.01528414003247696</v>
       </c>
       <c r="T17">
-        <v>0.01319619970758132</v>
+        <v>0.01528414003247697</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1226536666666667</v>
+        <v>0.2528413333333333</v>
       </c>
       <c r="H18">
-        <v>0.367961</v>
+        <v>0.758524</v>
       </c>
       <c r="I18">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="J18">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.976813</v>
       </c>
       <c r="O18">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="P18">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="Q18">
-        <v>0.3261284542547778</v>
+        <v>0.6722893448902222</v>
       </c>
       <c r="R18">
-        <v>2.935156088293</v>
+        <v>6.050604104012</v>
       </c>
       <c r="S18">
-        <v>0.1355665334719486</v>
+        <v>0.1500674854139118</v>
       </c>
       <c r="T18">
-        <v>0.1355665334719486</v>
+        <v>0.1500674854139118</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1226536666666667</v>
+        <v>0.2528413333333333</v>
       </c>
       <c r="H19">
-        <v>0.367961</v>
+        <v>0.758524</v>
       </c>
       <c r="I19">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="J19">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1634573333333333</v>
+        <v>1.07216</v>
       </c>
       <c r="N19">
-        <v>0.490372</v>
+        <v>3.21648</v>
       </c>
       <c r="O19">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="P19">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="Q19">
-        <v>0.02004864127688889</v>
+        <v>0.2710863639466666</v>
       </c>
       <c r="R19">
-        <v>0.180437771492</v>
+        <v>2.43977727552</v>
       </c>
       <c r="S19">
-        <v>0.008333908811916032</v>
+        <v>0.06051151825724621</v>
       </c>
       <c r="T19">
-        <v>0.008333908811916032</v>
+        <v>0.06051151825724621</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1226536666666667</v>
+        <v>0.2528413333333333</v>
       </c>
       <c r="H20">
-        <v>0.367961</v>
+        <v>0.758524</v>
       </c>
       <c r="I20">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="J20">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.312902</v>
+        <v>0.6904613333333334</v>
       </c>
       <c r="N20">
-        <v>0.938706</v>
+        <v>2.071384</v>
       </c>
       <c r="O20">
-        <v>0.07769759019819752</v>
+        <v>0.130912302868464</v>
       </c>
       <c r="P20">
-        <v>0.07769759019819752</v>
+        <v>0.1309123028684641</v>
       </c>
       <c r="Q20">
-        <v>0.03837857760733333</v>
+        <v>0.1745771641351111</v>
       </c>
       <c r="R20">
-        <v>0.345407198466</v>
+        <v>1.571194477216</v>
       </c>
       <c r="S20">
-        <v>0.01595337867006773</v>
+        <v>0.03896886992419281</v>
       </c>
       <c r="T20">
-        <v>0.01595337867006773</v>
+        <v>0.03896886992419282</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1226536666666667</v>
+        <v>0.2528413333333333</v>
       </c>
       <c r="H21">
-        <v>0.367961</v>
+        <v>0.758524</v>
       </c>
       <c r="I21">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="J21">
-        <v>0.2053265568387966</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6330566666666666</v>
+        <v>0.5818603333333333</v>
       </c>
       <c r="N21">
-        <v>1.89917</v>
+        <v>1.745581</v>
       </c>
       <c r="O21">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="P21">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="Q21">
-        <v>0.07764672137444444</v>
+        <v>0.1471183424937778</v>
       </c>
       <c r="R21">
-        <v>0.6988204923699999</v>
+        <v>1.324065082444</v>
       </c>
       <c r="S21">
-        <v>0.0322765361772829</v>
+        <v>0.03283955023846009</v>
       </c>
       <c r="T21">
-        <v>0.0322765361772829</v>
+        <v>0.03283955023846009</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1568993333333333</v>
+        <v>0.157931</v>
       </c>
       <c r="H22">
-        <v>0.4706979999999999</v>
+        <v>0.473793</v>
       </c>
       <c r="I22">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="J22">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.258824</v>
+        <v>0.2708086666666666</v>
       </c>
       <c r="N22">
-        <v>0.7764719999999999</v>
+        <v>0.812426</v>
       </c>
       <c r="O22">
-        <v>0.06426932741068538</v>
+        <v>0.0513456503334074</v>
       </c>
       <c r="P22">
-        <v>0.06426932741068538</v>
+        <v>0.05134565033340741</v>
       </c>
       <c r="Q22">
-        <v>0.04060931305066666</v>
+        <v>0.04276908353533333</v>
       </c>
       <c r="R22">
-        <v>0.3654838174559999</v>
+        <v>0.384921751818</v>
       </c>
       <c r="S22">
-        <v>0.01688066074926177</v>
+        <v>0.009546854889769288</v>
       </c>
       <c r="T22">
-        <v>0.01688066074926177</v>
+        <v>0.009546854889769288</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1568993333333333</v>
+        <v>0.157931</v>
       </c>
       <c r="H23">
-        <v>0.4706979999999999</v>
+        <v>0.473793</v>
       </c>
       <c r="I23">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="J23">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.976813</v>
       </c>
       <c r="O23">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="P23">
-        <v>0.660248413839535</v>
+        <v>0.5041377935627104</v>
       </c>
       <c r="Q23">
-        <v>0.4171855472748888</v>
+        <v>0.4199286846343334</v>
       </c>
       <c r="R23">
-        <v>3.754669925473999</v>
+        <v>3.779358161709</v>
       </c>
       <c r="S23">
-        <v>0.1734175528715794</v>
+        <v>0.09373589249214728</v>
       </c>
       <c r="T23">
-        <v>0.1734175528715794</v>
+        <v>0.09373589249214727</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1568993333333333</v>
+        <v>0.157931</v>
       </c>
       <c r="H24">
-        <v>0.4706979999999999</v>
+        <v>0.473793</v>
       </c>
       <c r="I24">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="J24">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1634573333333333</v>
+        <v>1.07216</v>
       </c>
       <c r="N24">
-        <v>0.490372</v>
+        <v>3.21648</v>
       </c>
       <c r="O24">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="P24">
-        <v>0.04058855776001274</v>
+        <v>0.2032828311555739</v>
       </c>
       <c r="Q24">
-        <v>0.02564634662844444</v>
+        <v>0.16932730096</v>
       </c>
       <c r="R24">
-        <v>0.230817119656</v>
+        <v>1.52394570864</v>
       </c>
       <c r="S24">
-        <v>0.01066078799098614</v>
+        <v>0.03779700282345115</v>
       </c>
       <c r="T24">
-        <v>0.01066078799098614</v>
+        <v>0.03779700282345114</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1568993333333333</v>
+        <v>0.157931</v>
       </c>
       <c r="H25">
-        <v>0.4706979999999999</v>
+        <v>0.473793</v>
       </c>
       <c r="I25">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="J25">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.312902</v>
+        <v>0.6904613333333334</v>
       </c>
       <c r="N25">
-        <v>0.938706</v>
+        <v>2.071384</v>
       </c>
       <c r="O25">
-        <v>0.07769759019819752</v>
+        <v>0.130912302868464</v>
       </c>
       <c r="P25">
-        <v>0.07769759019819752</v>
+        <v>0.1309123028684641</v>
       </c>
       <c r="Q25">
-        <v>0.04909411519866666</v>
+        <v>0.1090452488346667</v>
       </c>
       <c r="R25">
-        <v>0.441847036788</v>
+        <v>0.981407239512</v>
       </c>
       <c r="S25">
-        <v>0.02040766122834631</v>
+        <v>0.02434092762785764</v>
       </c>
       <c r="T25">
-        <v>0.02040766122834631</v>
+        <v>0.02434092762785764</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1568993333333333</v>
+        <v>0.157931</v>
       </c>
       <c r="H26">
-        <v>0.4706979999999999</v>
+        <v>0.473793</v>
       </c>
       <c r="I26">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="J26">
-        <v>0.2626550086854527</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6330566666666666</v>
+        <v>0.5818603333333333</v>
       </c>
       <c r="N26">
-        <v>1.89917</v>
+        <v>1.745581</v>
       </c>
       <c r="O26">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="P26">
-        <v>0.1571961107915692</v>
+        <v>0.1103214220798444</v>
       </c>
       <c r="Q26">
-        <v>0.0993261689622222</v>
+        <v>0.09189378430366667</v>
       </c>
       <c r="R26">
-        <v>0.8939355206599998</v>
+        <v>0.827044058733</v>
       </c>
       <c r="S26">
-        <v>0.041288345845279</v>
+        <v>0.02051240175146828</v>
       </c>
       <c r="T26">
-        <v>0.041288345845279</v>
+        <v>0.02051240175146828</v>
       </c>
     </row>
   </sheetData>
